--- a/import/ydachnik/sites.xlsx
+++ b/import/ydachnik/sites.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="MTD" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,12 @@
     <t>ydachnik.by</t>
   </si>
   <si>
+    <t>nextshop.by</t>
+  </si>
+  <si>
+    <t>usadba.shop.by</t>
+  </si>
+  <si>
     <t>clean.by</t>
   </si>
   <si>
@@ -137,19 +143,28 @@
   </si>
   <si>
     <t>zeta.by</t>
+  </si>
+  <si>
+    <t>cleanhouse.by</t>
+  </si>
+  <si>
+    <t>k-center.by</t>
+  </si>
+  <si>
+    <t>nvd.by</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -169,12 +184,8 @@
       <sz val="10"/>
     </font>
     <font>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="11"/>
     </font>
@@ -220,17 +231,21 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="165">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -242,7 +257,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Normal" xfId="20"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -252,186 +267,196 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C33" activeCellId="0" pane="topLeft" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.28571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.33163265306122"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="6">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="7">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="9">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="10">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="11">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="12">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="13">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="14">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="15">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="16">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="17">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="18">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="19">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="20">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="21">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="22">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="23">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="24">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="26">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="27">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="28">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="29">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="30">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="31">
-      <c r="A31" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="31">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="32">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="33">
-      <c r="A33" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="33">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="34">
-      <c r="A34" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="34">
+      <c r="A34" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="35">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="36">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -450,191 +475,211 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I10" activeCellId="0" pane="topLeft" sqref="I10"/>
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.28571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.33163265306122"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="4">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="6">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="7">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="9">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="10">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="11">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="12">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="13">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="14">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="15">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="16">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="17">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="18">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="19">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="20">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="21">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="22">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="23">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="24">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="25">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="26">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="27">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="28">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="29">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="30">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="31">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="32">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="33">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="34">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="35">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="36">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="37">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="38">
+      <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="35">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="39">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -653,176 +698,191 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A15" activeCellId="0" pane="topLeft" sqref="A15"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="false" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A23" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A34" activeCellId="0" pane="topLeft" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.54591836734694"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="4">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="5">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="6">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="7">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="8">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="9">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="10">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="11">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="12">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="13">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="14">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="15">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="16">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="17">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="18">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="19">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="20">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="21">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="22">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="23">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="24">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="25">
+      <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="26">
+      <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="27">
+      <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="28">
+      <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="29">
+      <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="30">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="31">
-      <c r="A31" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="31">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="32">
+      <c r="A32" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="33">
+      <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="34">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18" outlineLevel="0" r="35">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
